--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1765259.718640486</v>
+        <v>1723435.936971479</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362049.4284792648</v>
+        <v>243524.7213650474</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7827302.311584199</v>
+        <v>7827302.311584198</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>70.1013612680166</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45.7693770721695</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.1066023865956</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4.580549094716531</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>95.79357249389182</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>29.09002923709559</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1466,7 +1466,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>67.03858805571426</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>159.8926002746995</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3565097727587</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>207.986300191826</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.97975510385934</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>294.3120346006018</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>35.52816799353789</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>99.03946631682496</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3565097727587</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.60419956430017</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.95974290852613</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>24.64815776426665</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.1513196436838</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.60419956430028</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>114.7098731467902</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>388.9701345428933</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2168,16 +2168,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
-        <v>106.2387529750474</v>
+        <v>21.22589736240345</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>268.7418428881281</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>121.7339476000078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>105.3005991691504</v>
       </c>
       <c r="V23" t="n">
-        <v>104.4594397528578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.03218749909144</v>
+        <v>16.83786409935501</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9447172474654</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>15.50684237516964</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>144.1648043931063</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>144.583018407241</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>36.48436605885001</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>62.76499192122279</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>306.0329870844807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006114</v>
+        <v>13.64898583655253</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>144.1648043931063</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.03218749909098</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.96326970426308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -3079,19 +3079,19 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>62.31843048847891</v>
       </c>
       <c r="U32" t="n">
-        <v>108.4745897976399</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>91.68674581998047</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>77.50776027739573</v>
       </c>
       <c r="E34" t="n">
-        <v>100.3242214789874</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>372.8825211933768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>68.15565410590844</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>94.06259899123577</v>
       </c>
       <c r="H36" t="n">
-        <v>6.45683482408856</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>43.35606979968759</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.8803768022633</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.343260727918973</v>
+        <v>135.4587505538995</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G39" t="n">
-        <v>73.4543215166124</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.77779472733685</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
         <v>225.6194376234954</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>115.1165353722832</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
@@ -3799,16 +3799,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>62.51438142406967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>197.2596853655418</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>102.1437862491764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121528968</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>123.5544594002518</v>
       </c>
       <c r="H43" t="n">
-        <v>142.7330706075309</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>175.3522226434511</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>223.2322317645825</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.456834824088095</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.03218749909098</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>263.4098305552187</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6722890434539</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C3" t="n">
-        <v>520.2192597623269</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2848501010757</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>212.0473950956202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>65.51283712250515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>210.869396638348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>210.869396638348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1270.778947492719</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>1270.778947492719</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
         <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
@@ -5077,16 +5077,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1270.778947492719</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>881.8450797407235</v>
+        <v>843.8100588399047</v>
       </c>
       <c r="C12" t="n">
-        <v>707.3920504595965</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5120,19 +5120,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
         <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M12" t="n">
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O12" t="n">
         <v>2102.280527752458</v>
@@ -5150,22 +5150,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.242145037065</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U12" t="n">
-        <v>1955.061680691222</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V12" t="n">
-        <v>1719.90957245948</v>
+        <v>1681.874551558661</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.672215731278</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X12" t="n">
-        <v>1257.820715525745</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y12" t="n">
-        <v>1050.060416760791</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C13" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D13" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E13" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F13" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V13" t="n">
-        <v>566.78431370192</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="W13" t="n">
-        <v>566.78431370192</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="X13" t="n">
-        <v>566.78431370192</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.78431370192</v>
+        <v>397.6814015253746</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2319.517746219732</v>
+        <v>1399.756948718458</v>
       </c>
       <c r="C14" t="n">
-        <v>1950.55522927932</v>
+        <v>1399.756948718458</v>
       </c>
       <c r="D14" t="n">
-        <v>1592.28953067257</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E14" t="n">
-        <v>1206.501278074326</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F14" t="n">
-        <v>795.5153732847182</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1789.89628069427</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1789.89628069427</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1789.89628069427</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1399.756948718458</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743.7701938734157</v>
+        <v>850.3132293009576</v>
       </c>
       <c r="C15" t="n">
-        <v>569.3171645922887</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>420.3827549310374</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>261.1452999255819</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5357,52 +5357,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2244.709957115726</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2045.167259169757</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1816.986794823915</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V15" t="n">
-        <v>1581.834686592172</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.59732986397</v>
+        <v>1434.140365291512</v>
       </c>
       <c r="X15" t="n">
-        <v>1119.745829658438</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y15" t="n">
-        <v>911.9855308934837</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>566.78431370192</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="W16" t="n">
-        <v>566.78431370192</v>
+        <v>63.66691519346267</v>
       </c>
       <c r="X16" t="n">
-        <v>566.78431370192</v>
+        <v>63.66691519346267</v>
       </c>
       <c r="Y16" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2280.144021164513</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2280.144021164513</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2280.144021164513</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2026.35759904938</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>2026.35759904938</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>2026.35759904938</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F18" t="n">
-        <v>139.5078710072816</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G18" t="n">
-        <v>139.5078710072816</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5603,16 +5603,16 @@
         <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>1056.511576412174</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1568.236257700347</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>1969.948689296673</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5630,16 +5630,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W18" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="19">
@@ -5676,46 +5676,46 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>484.3834020790538</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="V19" t="n">
-        <v>353.0840852304234</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="W19" t="n">
-        <v>63.66691519346278</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2154.507718257114</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C20" t="n">
-        <v>1785.545201316702</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="D20" t="n">
-        <v>1427.279502709952</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="E20" t="n">
-        <v>1041.491250111708</v>
+        <v>439.7941222425466</v>
       </c>
       <c r="F20" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q20" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X20" t="n">
-        <v>2270.376276991246</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.376276991246</v>
+        <v>1581.144731845324</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>761.9260196884954</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>587.4729904073685</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5834,19 +5834,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>244.4315198664946</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>613.9827349749785</v>
+        <v>644.1786558284796</v>
       </c>
       <c r="M21" t="n">
-        <v>1097.210794042153</v>
+        <v>1127.406714895654</v>
       </c>
       <c r="N21" t="n">
-        <v>1608.935475330326</v>
+        <v>1639.131396183828</v>
       </c>
       <c r="O21" t="n">
-        <v>2010.647906926653</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
         <v>2193.291384540003</v>
@@ -5858,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2176.994211604904</v>
+        <v>2262.865782930807</v>
       </c>
       <c r="T21" t="n">
-        <v>1977.451513658935</v>
+        <v>2063.323084984837</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1835.142620638994</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1599.990512407252</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1345.75315567905</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>1137.901655473517</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>930.1413567085635</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
         <v>46.89499644164432</v>
@@ -5913,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200977</v>
@@ -5931,31 +5931,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R22" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S22" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T22" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U22" t="n">
-        <v>566.7843137019199</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V22" t="n">
-        <v>566.7843137019199</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W22" t="n">
-        <v>443.8207302675686</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1121.297556972598</v>
+        <v>790.948947646639</v>
       </c>
       <c r="C23" t="n">
-        <v>1121.297556972598</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D23" t="n">
-        <v>763.0318583658473</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5995,7 +5995,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244547</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645667</v>
+        <v>2238.385580497215</v>
       </c>
       <c r="V23" t="n">
-        <v>1507.897397036719</v>
+        <v>1907.322693153645</v>
       </c>
       <c r="W23" t="n">
-        <v>1507.897397036719</v>
+        <v>1554.554037883531</v>
       </c>
       <c r="X23" t="n">
-        <v>1507.897397036719</v>
+        <v>1181.088279622451</v>
       </c>
       <c r="Y23" t="n">
-        <v>1507.897397036719</v>
+        <v>790.948947646639</v>
       </c>
     </row>
     <row r="24">
@@ -6068,13 +6068,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076318</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161157</v>
+        <v>541.8037716079656</v>
       </c>
       <c r="M24" t="n">
         <v>974.44769738329</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1827.343101147238</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.332652045255</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="X25" t="n">
-        <v>1827.343101147238</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="Y25" t="n">
-        <v>1827.343101147238</v>
+        <v>63.90293997634635</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.532017289277</v>
+        <v>1250.081844501753</v>
       </c>
       <c r="C26" t="n">
-        <v>651.5695003488649</v>
+        <v>1250.081844501753</v>
       </c>
       <c r="D26" t="n">
-        <v>293.3038017421144</v>
+        <v>891.816145895003</v>
       </c>
       <c r="E26" t="n">
-        <v>293.3038017421144</v>
+        <v>891.816145895003</v>
       </c>
       <c r="F26" t="n">
-        <v>293.3038017421144</v>
+        <v>480.8302411053955</v>
       </c>
       <c r="G26" t="n">
-        <v>293.3038017421144</v>
+        <v>62.55847358828032</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>62.55847358828032</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6232,7 +6232,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244547</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376118</v>
@@ -6259,19 +6259,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>2090.963399967083</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1759.900512623512</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="W26" t="n">
-        <v>1407.131857353398</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="X26" t="n">
-        <v>1407.131857353398</v>
+        <v>1640.221176477565</v>
       </c>
       <c r="Y26" t="n">
-        <v>1407.131857353398</v>
+        <v>1250.081844501753</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.0544483625931</v>
+        <v>704.2697763643505</v>
       </c>
       <c r="C27" t="n">
-        <v>501.6014190814661</v>
+        <v>529.8167470832235</v>
       </c>
       <c r="D27" t="n">
-        <v>352.6670094202149</v>
+        <v>380.8823374219722</v>
       </c>
       <c r="E27" t="n">
-        <v>193.4295544147593</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1025.950675330485</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1537.675356618659</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>1939.387788214985</v>
       </c>
       <c r="P27" t="n">
-        <v>2275.355263568887</v>
+        <v>2244.794362487198</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6335,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1749.271049313092</v>
+        <v>1777.48637731485</v>
       </c>
       <c r="V27" t="n">
-        <v>1514.118941081349</v>
+        <v>1542.334269083107</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.881584353148</v>
+        <v>1288.096912354905</v>
       </c>
       <c r="X27" t="n">
-        <v>1052.030084147615</v>
+        <v>1080.245412149372</v>
       </c>
       <c r="Y27" t="n">
-        <v>844.2697853826612</v>
+        <v>872.4851133844186</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344.749822082216</v>
+        <v>362.7211268674616</v>
       </c>
       <c r="C28" t="n">
-        <v>2344.749822082216</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D28" t="n">
-        <v>2344.749822082216</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E28" t="n">
-        <v>2344.749822082216</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F28" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>2138.758986819786</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1979.782424143199</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y28" t="n">
-        <v>2344.749822082216</v>
+        <v>544.3695916977013</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2270.376276991245</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C29" t="n">
-        <v>1901.413760050833</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D29" t="n">
-        <v>1592.28953067257</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E29" t="n">
-        <v>1206.501278074326</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F29" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6463,22 +6463,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P29" t="n">
         <v>2224.886645733486</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991245</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991245</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="T29" t="n">
-        <v>2270.376276991245</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="U29" t="n">
-        <v>2270.376276991245</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="V29" t="n">
-        <v>2270.376276991245</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="W29" t="n">
-        <v>2270.376276991245</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="X29" t="n">
-        <v>2270.376276991245</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="Y29" t="n">
-        <v>2270.376276991245</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.0544483625931</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C30" t="n">
-        <v>501.6014190814661</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D30" t="n">
-        <v>352.6670094202149</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147593</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F30" t="n">
         <v>46.89499644164432</v>
@@ -6545,22 +6545,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498445</v>
+        <v>203.7323022365153</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583284</v>
+        <v>573.2835173449992</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1056.511576412174</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213676</v>
+        <v>1568.236257700347</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1969.948689296673</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.2697853826612</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.36185250133218</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>510.8359777754383</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G31" t="n">
         <v>46.89499644164432</v>
@@ -6660,13 +6660,13 @@
         <v>607.7685734363101</v>
       </c>
       <c r="W31" t="n">
-        <v>318.3514033993495</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X31" t="n">
-        <v>90.36185250133218</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.36185250133218</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1757.628112035911</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="C32" t="n">
-        <v>1757.628112035911</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.628112035911</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E32" t="n">
-        <v>1371.839859437666</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G32" t="n">
         <v>542.5821871309436</v>
@@ -6727,25 +6727,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.198404760799</v>
+        <v>2207.428367406923</v>
       </c>
       <c r="U32" t="n">
-        <v>1757.628112035911</v>
+        <v>1953.64194529179</v>
       </c>
       <c r="V32" t="n">
-        <v>1757.628112035911</v>
+        <v>1622.57905794822</v>
       </c>
       <c r="W32" t="n">
-        <v>1757.628112035911</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="X32" t="n">
-        <v>1757.628112035911</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="Y32" t="n">
-        <v>1757.628112035911</v>
+        <v>1269.810402678106</v>
       </c>
     </row>
     <row r="33">
@@ -6767,10 +6767,10 @@
         <v>139.5078710072812</v>
       </c>
       <c r="F33" t="n">
-        <v>139.5078710072812</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>139.5078710072812</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6782,22 +6782,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>607.7685734363101</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="C34" t="n">
-        <v>438.8323905084033</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="D34" t="n">
-        <v>288.7157510960675</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
         <v>46.89499644164432</v>
@@ -6888,22 +6888,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363101</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363101</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363101</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.7685734363101</v>
+        <v>125.1856633885087</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.5440077480855</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C35" t="n">
-        <v>423.5440077480855</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D35" t="n">
-        <v>423.5440077480855</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E35" t="n">
-        <v>423.5440077480855</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5440077480855</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
         <v>46.89499644164432</v>
@@ -6943,7 +6943,7 @@
         <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244554</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6967,22 +6967,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2124.767062713795</v>
+        <v>2275.905727025743</v>
       </c>
       <c r="U35" t="n">
-        <v>1870.980640598662</v>
+        <v>2275.905727025743</v>
       </c>
       <c r="V35" t="n">
-        <v>1539.917753255091</v>
+        <v>1944.842839682172</v>
       </c>
       <c r="W35" t="n">
-        <v>1187.149097984977</v>
+        <v>1592.074184412058</v>
       </c>
       <c r="X35" t="n">
-        <v>813.6833397238972</v>
+        <v>1592.074184412058</v>
       </c>
       <c r="Y35" t="n">
-        <v>423.5440077480855</v>
+        <v>1201.934852436247</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>508.1234744593334</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>359.1890647980821</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E36" t="n">
-        <v>199.9516097926266</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F36" t="n">
-        <v>53.41705181951156</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="G36" t="n">
-        <v>53.41705181951156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
         <v>46.89499644164432</v>
@@ -7016,52 +7016,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1533.364070505576</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>1935.076502101902</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2240.483076374116</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.68900634031866</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="C37" t="n">
-        <v>90.68900634031866</v>
+        <v>184.1479023025164</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>184.1479023025164</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>184.1479023025164</v>
       </c>
       <c r="F37" t="n">
         <v>46.89499644164432</v>
@@ -7125,22 +7125,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U37" t="n">
-        <v>90.68900634031866</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V37" t="n">
-        <v>90.68900634031866</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="W37" t="n">
-        <v>90.68900634031866</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="X37" t="n">
-        <v>90.68900634031866</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.68900634031866</v>
+        <v>353.0840852304233</v>
       </c>
     </row>
     <row r="38">
@@ -7171,52 +7171,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164461</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915538</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244547</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2266.999245952943</v>
+        <v>2207.922801320702</v>
       </c>
       <c r="T38" t="n">
-        <v>2266.999245952943</v>
+        <v>2207.922801320702</v>
       </c>
       <c r="U38" t="n">
-        <v>2266.999245952943</v>
+        <v>2207.922801320702</v>
       </c>
       <c r="V38" t="n">
-        <v>2266.999245952943</v>
+        <v>1876.859913977131</v>
       </c>
       <c r="W38" t="n">
-        <v>2266.999245952943</v>
+        <v>1876.859913977131</v>
       </c>
       <c r="X38" t="n">
-        <v>2266.999245952943</v>
+        <v>1876.859913977131</v>
       </c>
       <c r="Y38" t="n">
         <v>1876.859913977131</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>857.2848731868576</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>682.8318439057306</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>533.8974342444793</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>374.6599792390238</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F39" t="n">
-        <v>228.1254212659088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7253,25 +7253,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>261.256532447767</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2275.355263568887</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7289,16 +7289,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1695.349365905614</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1441.112009177412</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1233.26050897188</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>1025.500210206926</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>362.9228841930452</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
         <v>46.89499644164432</v>
@@ -7335,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200977</v>
@@ -7359,25 +7359,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T40" t="n">
-        <v>379.8701515943956</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="U40" t="n">
-        <v>379.8701515943956</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="V40" t="n">
-        <v>379.8701515943956</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="W40" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1550.266142823374</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C41" t="n">
-        <v>1181.303625882962</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.303625882962</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E41" t="n">
-        <v>795.5153732847182</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5153732847182</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7414,16 +7414,16 @@
         <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275673</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244547</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O41" t="n">
         <v>1962.442083972113</v>
@@ -7438,25 +7438,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.198404760799</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V41" t="n">
-        <v>1550.266142823374</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W41" t="n">
-        <v>1550.266142823374</v>
+        <v>1266.292000724179</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.266142823374</v>
+        <v>1266.292000724179</v>
       </c>
       <c r="Y41" t="n">
-        <v>1550.266142823374</v>
+        <v>876.152668748367</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551149</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>518.9572232892801</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>518.9572232892801</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
         <v>359.7197682838247</v>
@@ -7493,49 +7493,49 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076318</v>
+        <v>326.4953988953775</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161157</v>
+        <v>696.0466140038614</v>
       </c>
       <c r="M42" t="n">
-        <v>974.44769738329</v>
+        <v>1179.274673071036</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1690.999354359209</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2092.711785955536</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673871</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401369</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>386.97599429278</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="C43" t="n">
-        <v>386.97599429278</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="D43" t="n">
-        <v>386.97599429278</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="E43" t="n">
-        <v>386.97599429278</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="F43" t="n">
-        <v>386.97599429278</v>
+        <v>171.6974806843229</v>
       </c>
       <c r="G43" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7602,19 +7602,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363101</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363101</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363101</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363101</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="Y43" t="n">
-        <v>386.97599429278</v>
+        <v>318.5874281822332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.394979505922</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C44" t="n">
-        <v>823.4324625655099</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D44" t="n">
-        <v>465.1667639587595</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7648,13 +7648,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1910.057706913614</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U44" t="n">
-        <v>1910.057706913614</v>
+        <v>1899.279959921286</v>
       </c>
       <c r="V44" t="n">
-        <v>1578.994819570043</v>
+        <v>1899.279959921286</v>
       </c>
       <c r="W44" t="n">
-        <v>1578.994819570043</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="X44" t="n">
-        <v>1578.994819570043</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="Y44" t="n">
-        <v>1578.994819570043</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7730,10 +7730,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076318</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161157</v>
+        <v>541.8037716079656</v>
       </c>
       <c r="M45" t="n">
         <v>974.44769738329</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.36185250133218</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="C46" t="n">
-        <v>90.36185250133218</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="D46" t="n">
-        <v>90.36185250133218</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E46" t="n">
-        <v>90.36185250133218</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F46" t="n">
-        <v>90.36185250133218</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363101</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363101</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="W46" t="n">
-        <v>318.3514033993495</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="X46" t="n">
-        <v>90.36185250133218</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.36185250133218</v>
+        <v>341.6980375219478</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>258.8894691267911</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23317,16 +23317,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>143.6184697512201</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>37.65467069181011</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.090051078196922</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23475,7 +23475,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>44.15134313200201</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7540865596212</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.7829317747374</v>
@@ -23554,7 +23554,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>33.4402238695331</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>137.1803309947778</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.58175323162524</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>4.090051078196922</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23712,16 +23712,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>201.9804537877946</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>9.670066731535009</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23788,7 +23788,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>81.31564129514277</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>30.66303593248155</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23949,16 +23949,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>209.1054558247369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.0239685166904</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>17.90591119881816</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24056,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>53.38246657340278</v>
+        <v>138.3953221860467</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24183,16 +24183,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>17.54749091340801</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>164.7890507365832</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,7 +24223,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>145.9479587248308</v>
       </c>
       <c r="V23" t="n">
-        <v>223.2928187172771</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>124.2146335995364</v>
+        <v>150.4089569992728</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24420,16 +24420,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>83.10040598523369</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>148.1783531745376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>53.38246657340335</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>81.31564129514331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>108.9366819640812</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>155.819661430872</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>48.65005453620222</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>59.98082380350861</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>53.38246657340335</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>124.2146335995369</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>52.65220331394927</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>155.4645012862586</v>
       </c>
       <c r="U32" t="n">
-        <v>142.7739680963413</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>14.27705323942895</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>71.10771274081662</v>
       </c>
       <c r="E34" t="n">
-        <v>46.10974116758182</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620182</v>
@@ -25128,13 +25128,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.2065286485672</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25207,10 +25207,10 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>149.627277668829</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>42.63153801739909</v>
       </c>
       <c r="H36" t="n">
-        <v>99.50696423532086</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>105.2594032185248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>9.540671220667946</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
@@ -25365,13 +25365,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>178.0199010054849</v>
+        <v>45.90441117950436</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -25450,7 +25450,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G39" t="n">
-        <v>63.23981549202247</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>129.6561679192323</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
@@ -25599,7 +25599,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>171.4064629643078</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>265.2378770460653</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>151.9812833518712</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>70.56471273913932</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>143.6184697512199</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>43.89210145070385</v>
       </c>
       <c r="H43" t="n">
-        <v>14.65372644228995</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>42.43070913128631</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>28.01632612939869</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749143</v>
+        <v>53.38246657340333</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4143733518646</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26079,16 +26079,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>22.87950324631743</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594846.2244694845</v>
+        <v>594846.2244694846</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594846.2244694846</v>
+        <v>594846.2244694844</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>594846.2244694845</v>
+        <v>594846.2244694844</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594846.2244694848</v>
+        <v>594846.2244694846</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594846.2244694845</v>
+        <v>594846.2244694846</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>594846.2244694846</v>
+        <v>594846.2244694844</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594846.2244694845</v>
+        <v>594846.2244694844</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="F2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052693</v>
       </c>
       <c r="G2" t="n">
         <v>330470.1247052693</v>
       </c>
       <c r="H2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="I2" t="n">
+        <v>330470.1247052692</v>
+      </c>
+      <c r="J2" t="n">
         <v>330470.1247052691</v>
       </c>
-      <c r="J2" t="n">
-        <v>330470.1247052692</v>
-      </c>
       <c r="K2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="L2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="M2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="N2" t="n">
         <v>330470.1247052691</v>
       </c>
       <c r="O2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="P2" t="n">
         <v>330470.1247052691</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26426,7 +26426,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212449</v>
       </c>
       <c r="F4" t="n">
         <v>445.150385721245</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104975.3457377042</v>
+        <v>104975.3457377043</v>
       </c>
       <c r="C6" t="n">
-        <v>185744.7772692519</v>
+        <v>185744.777269252</v>
       </c>
       <c r="D6" t="n">
-        <v>185744.7772692519</v>
+        <v>185744.7772692521</v>
       </c>
       <c r="E6" t="n">
-        <v>-57809.09058485124</v>
+        <v>-65116.32984324761</v>
       </c>
       <c r="F6" t="n">
-        <v>287803.2521941014</v>
+        <v>280496.0129357052</v>
       </c>
       <c r="G6" t="n">
-        <v>287803.2521941015</v>
+        <v>280496.0129357051</v>
       </c>
       <c r="H6" t="n">
-        <v>287803.2521941015</v>
+        <v>280496.012935705</v>
       </c>
       <c r="I6" t="n">
-        <v>287803.2521941013</v>
+        <v>280496.0129357051</v>
       </c>
       <c r="J6" t="n">
-        <v>224743.3095949952</v>
+        <v>217436.0703365987</v>
       </c>
       <c r="K6" t="n">
-        <v>287803.2521941015</v>
+        <v>280496.012935705</v>
       </c>
       <c r="L6" t="n">
-        <v>287803.2521941015</v>
+        <v>280496.012935705</v>
       </c>
       <c r="M6" t="n">
-        <v>201784.7183740254</v>
+        <v>194477.479115629</v>
       </c>
       <c r="N6" t="n">
-        <v>287803.2521941013</v>
+        <v>280496.012935705</v>
       </c>
       <c r="O6" t="n">
-        <v>287803.2521941015</v>
+        <v>280496.012935705</v>
       </c>
       <c r="P6" t="n">
-        <v>287803.2521941013</v>
+        <v>280496.012935705</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="I4" t="n">
         <v>586.187455520554</v>
@@ -26825,7 +26825,7 @@
         <v>586.1874555205541</v>
       </c>
       <c r="N4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="O4" t="n">
         <v>586.187455520554</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>195.8453169412958</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,22 +27432,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,19 +27460,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>102.6071377202991</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>91.57414009104113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>313.7202155910319</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.01032478445043</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.6272392768849</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>201.1924361087609</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.213687673191069</v>
+        <v>1.213687673191068</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42967888306804</v>
+        <v>12.42967888306803</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525005</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31785,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108853</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.6569078528415</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393905</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528546</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757689</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454667</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025812</v>
       </c>
       <c r="O12" t="n">
         <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0031279382449</v>
+        <v>60.43011789536098</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988236</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.3185327551517</v>
       </c>
       <c r="S12" t="n">
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051113</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031251</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618697</v>
       </c>
       <c r="I13" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836671</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354489</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823736</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069441</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545557</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598721</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292339</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464805</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031732</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786079</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32022,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
-        <v>168.8929552025813</v>
+        <v>12.93721689827635</v>
       </c>
       <c r="O15" t="n">
         <v>154.5040580932971</v>
@@ -32098,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32107,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,25 +32232,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32259,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>91.47518954049923</v>
       </c>
       <c r="N18" t="n">
-        <v>12.93721689827657</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
         <v>154.5040580932971</v>
@@ -32335,7 +32335,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32344,10 +32344,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,10 +32554,10 @@
         <v>61.35218381454668</v>
       </c>
       <c r="K21" t="n">
-        <v>72.90804380506356</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L21" t="n">
-        <v>140.9980901415502</v>
+        <v>139.5464099305422</v>
       </c>
       <c r="M21" t="n">
         <v>164.5381207449218</v>
@@ -32566,10 +32566,10 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
         <v>82.89280709988239</v>
@@ -32788,16 +32788,16 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454668</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>140.9980901415502</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>113.4430366117401</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
@@ -33034,7 +33034,7 @@
         <v>140.9980901415502</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449218</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
@@ -33043,10 +33043,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
-        <v>50.94019673382221</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>30.86959705221039</v>
       </c>
       <c r="R27" t="n">
         <v>40.31853275515171</v>
@@ -33262,10 +33262,10 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J30" t="n">
-        <v>61.35218381454668</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8932366165281</v>
+        <v>31.79772296670058</v>
       </c>
       <c r="L30" t="n">
         <v>140.9980901415502</v>
@@ -33283,7 +33283,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.89280709988239</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>40.31853275515171</v>
@@ -33508,7 +33508,7 @@
         <v>140.9980901415502</v>
       </c>
       <c r="M33" t="n">
-        <v>100.965110702038</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
@@ -33520,7 +33520,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33745,10 +33745,10 @@
         <v>140.9980901415502</v>
       </c>
       <c r="M36" t="n">
-        <v>8.582382440617323</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
-        <v>168.8929552025813</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>154.5040580932971</v>
@@ -33757,7 +33757,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.89280709988239</v>
+        <v>35.22443150987004</v>
       </c>
       <c r="R36" t="n">
         <v>40.31853275515171</v>
@@ -33976,10 +33976,10 @@
         <v>61.35218381454668</v>
       </c>
       <c r="K39" t="n">
-        <v>104.8606541711232</v>
+        <v>29.29741352008011</v>
       </c>
       <c r="L39" t="n">
-        <v>140.9980901415502</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>164.5381207449218</v>
@@ -33991,10 +33991,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
-        <v>50.94019673382221</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R39" t="n">
         <v>40.31853275515171</v>
@@ -34213,7 +34213,7 @@
         <v>61.35218381454668</v>
       </c>
       <c r="K42" t="n">
-        <v>104.8606541711232</v>
+        <v>95.1952584166564</v>
       </c>
       <c r="L42" t="n">
         <v>140.9980901415502</v>
@@ -34228,10 +34228,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988239</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515171</v>
@@ -34447,16 +34447,16 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J45" t="n">
-        <v>61.35218381454668</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>140.9980901415502</v>
       </c>
       <c r="M45" t="n">
-        <v>164.5381207449218</v>
+        <v>113.4430366117401</v>
       </c>
       <c r="N45" t="n">
         <v>168.8929552025813</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788802</v>
       </c>
       <c r="K11" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848627</v>
       </c>
       <c r="L11" t="n">
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620587</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q11" t="n">
         <v>121.0739155037673</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828881</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729033</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>516.8936174628014</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766203</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781688</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35655,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35892,13 +35892,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35968,13 +35968,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>415.0462193684808</v>
       </c>
       <c r="N18" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>199.5318418432832</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651352</v>
+        <v>371.8323754541272</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36214,10 +36214,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
         <v>152.98832074971</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>14.92312141674905</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>488.1091505729034</v>
+        <v>437.0140664397217</v>
       </c>
       <c r="N24" t="n">
         <v>516.8936174628016</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36682,7 +36682,7 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
-        <v>488.1091505729034</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>235.4285579594291</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>100.965110702038</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547477</v>
+        <v>158.4215210049202</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651352</v>
@@ -36931,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M33" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
         <v>516.8936174628016</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37393,10 +37393,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
-        <v>332.1534122685989</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>105.3199451596976</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>155.9212115582997</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651352</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
@@ -37639,10 +37639,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>235.4285579594291</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674905</v>
+        <v>221.819056454876</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
@@ -37876,10 +37876,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>355.1946887874304</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q44" t="n">
         <v>121.0739155037673</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503788</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>437.0140664397217</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
